--- a/Översikt ÖDESHÖG.xlsx
+++ b/Översikt ÖDESHÖG.xlsx
@@ -572,7 +572,7 @@
         <v>43570</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44420</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44664</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44974</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43378</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>43381</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43529</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43560</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43561</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43561</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43591</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43601</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43601</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43621</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43621</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43630</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43636</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43689</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>43699</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43699</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43700</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43700</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>43707</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43711</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43728</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43728</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43742</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43762</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43783</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43783</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43791</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43797</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43822</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43826</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43843</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43854</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43858</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43859</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43868</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43951</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43958</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43958</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43971</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43984</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>44020</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44062</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44076</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44076</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44077</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44084</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44084</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44106</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44106</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44112</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44112</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44117</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44117</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44117</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44127</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44132</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44145</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44165</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44209</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44231</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44242</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44242</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44251</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44265</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44307</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44358</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44358</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44385</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44417</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44466</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44502</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44504</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44511</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44512</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44517</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44538</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44538</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>44564</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44572</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44582</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44613</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44617</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44622</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44664</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44698</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44698</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44743</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44750</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44791</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44792</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44796</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44796</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44798</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44812</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44812</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44820</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44858</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44865</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44931</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44936</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44974</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44974</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44979</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44992</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44992</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44994</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44994</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45000</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45027</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45048</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45048</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45065</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45069</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45070</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45084</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45097</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45145</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45149</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45153</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45161</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45163</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45163</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45163</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45166</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>

--- a/Översikt ÖDESHÖG.xlsx
+++ b/Översikt ÖDESHÖG.xlsx
@@ -572,7 +572,7 @@
         <v>43570</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44420</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44664</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44974</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43378</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>43381</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43529</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43560</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43561</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43561</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43591</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43601</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43601</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43621</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43621</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43630</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43636</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43689</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>43699</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43699</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43700</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43700</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>43707</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43711</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43728</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43728</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43742</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43762</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43783</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43783</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43791</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43797</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43822</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43826</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43843</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43854</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43858</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43859</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43868</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43951</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43958</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43958</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43971</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43984</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>44020</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44062</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44076</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44076</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44077</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44084</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44084</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44106</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44106</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44112</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44112</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44117</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44117</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44117</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44127</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44132</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44145</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44165</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44209</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44231</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44242</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44242</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44251</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44265</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44307</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44358</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44358</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44385</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44417</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44466</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44502</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44504</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44511</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44512</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44517</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44538</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44538</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>44564</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44572</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44582</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44613</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44617</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44622</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44664</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44698</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44698</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44743</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44750</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44791</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44792</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44796</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44796</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44798</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44812</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44812</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44820</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44858</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44865</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44931</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44936</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44974</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44974</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44979</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44992</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44992</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44994</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44994</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45000</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45027</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45048</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45048</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45065</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45069</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45070</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45084</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45097</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45145</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45149</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45153</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45161</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45163</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45163</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45163</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45166</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>

--- a/Översikt ÖDESHÖG.xlsx
+++ b/Översikt ÖDESHÖG.xlsx
@@ -572,7 +572,7 @@
         <v>43570</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44420</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44664</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44974</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43378</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>43381</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43529</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43560</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43561</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43561</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43591</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43601</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43601</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43621</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43621</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43630</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43636</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43689</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>43699</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43699</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43700</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43700</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>43707</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43711</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43728</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43728</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43742</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43762</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43783</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43783</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43791</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43797</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43822</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43826</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43843</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43854</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43858</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43859</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43868</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43951</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43958</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43958</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43971</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43984</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>44020</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44062</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44076</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44076</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44077</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44084</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44084</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44106</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44106</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44112</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44112</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44117</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44117</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44117</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44127</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44132</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44145</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44165</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44209</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44231</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44242</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44242</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44251</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44265</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44307</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44358</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44358</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44385</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44417</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44466</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44502</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44504</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44511</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44512</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44517</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44538</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44538</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>44564</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44572</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44582</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44613</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44617</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44622</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44664</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44698</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44698</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44743</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44750</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44791</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44792</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44796</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44796</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44798</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44812</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44812</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44820</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44858</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44865</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44931</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44936</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44974</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44974</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44979</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44992</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44992</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44994</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44994</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45000</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45027</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45048</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45048</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45065</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45069</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45070</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45084</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45097</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45145</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45149</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45153</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45161</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45163</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45163</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45163</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45166</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>

--- a/Översikt ÖDESHÖG.xlsx
+++ b/Översikt ÖDESHÖG.xlsx
@@ -572,7 +572,7 @@
         <v>43570</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44420</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44664</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44974</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43378</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>43381</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43529</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43560</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43561</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43561</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43591</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43601</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43601</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43621</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43621</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43630</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43636</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43689</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>43699</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43699</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43700</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43700</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>43707</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43711</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43728</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43728</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43742</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43762</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43783</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43783</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43791</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43797</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43822</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43826</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43843</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43854</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43858</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43859</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43868</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43951</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43958</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43958</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43971</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43984</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>44020</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44062</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44076</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44076</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44077</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44084</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44084</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44106</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44106</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44112</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44112</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44117</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44117</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44117</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44127</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44132</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44145</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44165</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44209</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44231</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44242</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44242</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44251</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44265</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44307</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44358</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44358</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44385</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44417</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44466</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44502</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44504</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44511</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44512</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44517</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44538</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44538</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>44564</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44572</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44582</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44613</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44617</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44622</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44664</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44698</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44698</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44743</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44750</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44791</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44792</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44796</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44796</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44798</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44812</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44812</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44820</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44858</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44865</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44931</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44936</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44974</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44974</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44979</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44992</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44992</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44994</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44994</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45000</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45027</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45048</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45048</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45065</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45069</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45070</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45084</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45097</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45145</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45149</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45153</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45161</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45163</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45163</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45163</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45166</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>

--- a/Översikt ÖDESHÖG.xlsx
+++ b/Översikt ÖDESHÖG.xlsx
@@ -572,7 +572,7 @@
         <v>43570</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44420</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44664</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44974</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43378</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>43381</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43529</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43560</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43561</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43561</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43591</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43601</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43601</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43621</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43621</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43630</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43636</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43689</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>43699</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43699</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43700</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43700</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>43707</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43711</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43728</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43728</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43742</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43762</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43783</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43783</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43791</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43797</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43822</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43826</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43843</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43854</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43858</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43859</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43868</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43951</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43958</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43958</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43971</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43984</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>44020</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44062</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44076</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44076</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44077</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44084</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44084</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44106</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44106</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44112</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44112</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44117</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44117</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44117</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44127</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44132</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44145</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44165</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44209</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44231</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44242</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44242</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44251</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44265</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44307</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44358</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44358</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44385</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44417</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44466</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44502</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44504</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44511</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44512</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44517</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44538</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44538</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>44564</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44572</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44582</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44613</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44617</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44622</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44664</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44698</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44698</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44743</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44750</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44791</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44792</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44796</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44796</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44798</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44812</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44812</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44820</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44858</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44865</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44931</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44936</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44974</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44974</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44979</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44992</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44992</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44994</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44994</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45000</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45027</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45048</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45048</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45065</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45069</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45070</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45084</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45097</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45145</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45149</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45153</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45161</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45163</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45163</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45163</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45166</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>

--- a/Översikt ÖDESHÖG.xlsx
+++ b/Översikt ÖDESHÖG.xlsx
@@ -572,7 +572,7 @@
         <v>43570</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44420</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44664</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44974</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43378</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>43381</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43529</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43560</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43561</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43561</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43591</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43601</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43601</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43621</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43621</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43630</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43636</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43689</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>43699</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43699</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43700</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43700</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>43707</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43711</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43728</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43728</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43742</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43762</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43783</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43783</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43791</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43797</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43822</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43826</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43843</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43854</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43858</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43859</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43868</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43951</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43958</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43958</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43971</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43984</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>44020</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44062</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44076</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44076</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44077</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44084</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44084</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44106</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44106</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44112</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44112</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44117</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44117</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44117</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44127</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44132</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44145</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44165</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44209</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44231</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44242</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44242</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44251</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44265</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44307</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44358</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44358</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44385</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44417</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44466</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44502</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44504</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44511</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44512</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44517</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44538</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44538</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>44564</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44572</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44582</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44613</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44617</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44622</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44664</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44698</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44698</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44743</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44750</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44791</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44792</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44796</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44796</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44798</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44812</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44812</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44820</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44858</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44865</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44931</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44936</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44974</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44974</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44979</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44992</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44992</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44994</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44994</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45000</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45027</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45048</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45048</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45065</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45069</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45070</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45084</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45097</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45145</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45149</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45153</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45161</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45163</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45163</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45163</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45166</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>

--- a/Översikt ÖDESHÖG.xlsx
+++ b/Översikt ÖDESHÖG.xlsx
@@ -572,7 +572,7 @@
         <v>43570</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44420</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44664</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44974</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43378</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>43381</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43529</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43560</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43561</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43561</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43591</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43601</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43601</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43621</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43621</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43630</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43636</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43689</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>43699</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43699</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43700</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43700</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>43707</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43711</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43728</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43728</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43742</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43762</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43783</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43783</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43791</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43797</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43822</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43826</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43843</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43854</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43858</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43859</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43868</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43951</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43958</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43958</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43971</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43984</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>44020</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44062</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44076</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44076</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44077</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44084</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44084</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44106</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44106</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44112</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44112</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44117</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44117</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44117</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44127</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44132</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44145</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44165</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44209</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44231</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44242</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44242</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44251</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44265</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44307</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44358</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44358</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44385</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44417</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44466</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44502</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44504</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44511</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44512</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44517</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44538</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44538</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>44564</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44572</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44582</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44613</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44617</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44622</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44664</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44698</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44698</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44743</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44750</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44791</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44792</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44796</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44796</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44798</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44812</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44812</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44820</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44858</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44865</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44931</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44936</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44974</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44974</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44979</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44992</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44992</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44994</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44994</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45000</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45027</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45048</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45048</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45065</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45069</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45070</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45084</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45097</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45145</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45149</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45153</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45161</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45163</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45163</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45163</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45166</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>

--- a/Översikt ÖDESHÖG.xlsx
+++ b/Översikt ÖDESHÖG.xlsx
@@ -572,7 +572,7 @@
         <v>43570</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44420</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44664</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44974</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43378</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>43381</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43529</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43560</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43561</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43561</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43591</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43601</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43601</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43621</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43621</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43630</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43636</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43689</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>43699</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43699</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43700</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43700</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>43707</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43711</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43728</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43728</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43742</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43762</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43783</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43783</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43791</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43797</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43822</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43826</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43843</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43854</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43858</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43859</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43868</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43951</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43958</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43958</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43971</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43984</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>44020</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44062</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44076</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44076</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44077</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44084</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44084</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44106</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44106</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44112</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44112</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44117</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44117</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44117</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44127</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44132</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44145</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44165</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44209</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44231</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44242</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44242</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44251</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44265</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44307</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44358</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44358</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44385</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44417</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44466</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44502</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44504</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44511</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44512</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44517</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44538</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44538</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>44564</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44572</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44582</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44613</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44617</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44622</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44664</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44698</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44698</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44743</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44750</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44791</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44792</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44796</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44796</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44798</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44812</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44812</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44820</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44858</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44865</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44931</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44936</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44974</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44974</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44979</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44992</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44992</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44994</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44994</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45000</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45027</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45048</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45048</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45065</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45069</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45070</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45084</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45097</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45145</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45149</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45153</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45161</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45163</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45163</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45163</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45166</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>

--- a/Översikt ÖDESHÖG.xlsx
+++ b/Översikt ÖDESHÖG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y215"/>
+  <dimension ref="A1:Y217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43570</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44420</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44664</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44974</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43378</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>43381</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43529</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43560</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43561</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43561</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43591</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43601</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43601</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43621</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43621</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43630</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43636</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43689</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>43699</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43699</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43700</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43700</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>43707</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43711</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43728</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43728</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43742</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43762</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43783</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43783</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43791</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43797</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43822</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43826</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43843</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43854</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43858</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43859</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43868</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43951</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43958</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43958</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43971</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43984</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>44020</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44062</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44076</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44076</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44077</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44084</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44084</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44106</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44106</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44112</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44112</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44117</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44117</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44117</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44127</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44132</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44145</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44165</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44209</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44231</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44242</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44242</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44251</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44265</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44307</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44358</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44358</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44385</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44417</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44466</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44502</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44504</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44511</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44512</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44517</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44538</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44538</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>44564</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44572</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44582</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44613</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44617</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44622</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44664</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44698</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44698</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44743</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44750</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44791</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44792</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44796</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44796</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44798</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44812</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44812</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44820</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44858</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44865</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44931</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44936</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44974</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44974</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44979</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44992</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44992</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44994</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44994</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45000</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45027</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45048</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45048</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45065</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45069</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45070</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45084</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45097</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45145</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45149</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45153</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45161</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45163</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45163</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45163</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
       </c>
       <c r="R214" s="2" t="inlineStr"/>
     </row>
-    <row r="215">
+    <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
           <t>A 39190-2023</t>
@@ -13185,7 +13185,7 @@
         <v>45166</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13231,6 +13231,120 @@
         <v>0</v>
       </c>
       <c r="R215" s="2" t="inlineStr"/>
+    </row>
+    <row r="216" ht="15" customHeight="1">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>A 43263-2023</t>
+        </is>
+      </c>
+      <c r="B216" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C216" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>ÖDESHÖG</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0</v>
+      </c>
+      <c r="O216" t="n">
+        <v>0</v>
+      </c>
+      <c r="P216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>0</v>
+      </c>
+      <c r="R216" s="2" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>A 43265-2023</t>
+        </is>
+      </c>
+      <c r="B217" s="1" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C217" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>ÖDESHÖG</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0</v>
+      </c>
+      <c r="O217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R217" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÖDESHÖG.xlsx
+++ b/Översikt ÖDESHÖG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y217"/>
+  <dimension ref="A1:Y218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43570</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,27 +625,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/artfynd/A 20300-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/artfynd/A 20300-2019.xlsx", "A 20300-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/kartor/A 20300-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/kartor/A 20300-2019.png", "A 20300-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomål/A 20300-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomål/A 20300-2019.docx", "A 20300-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomålsmail/A 20300-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomålsmail/A 20300-2019.docx", "A 20300-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsyn/A 20300-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsyn/A 20300-2019.docx", "A 20300-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsynsmail/A 20300-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsynsmail/A 20300-2019.docx", "A 20300-2019")</f>
         <v/>
       </c>
     </row>
@@ -659,7 +659,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -711,27 +711,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/artfynd/A 33435-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/artfynd/A 33435-2020.xlsx", "A 33435-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/kartor/A 33435-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/kartor/A 33435-2020.png", "A 33435-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomål/A 33435-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomål/A 33435-2020.docx", "A 33435-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomålsmail/A 33435-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomålsmail/A 33435-2020.docx", "A 33435-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsyn/A 33435-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsyn/A 33435-2020.docx", "A 33435-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsynsmail/A 33435-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsynsmail/A 33435-2020.docx", "A 33435-2020")</f>
         <v/>
       </c>
     </row>
@@ -745,7 +745,7 @@
         <v>44420</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -797,31 +797,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/artfynd/A 40493-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/artfynd/A 40493-2021.xlsx", "A 40493-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/kartor/A 40493-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/kartor/A 40493-2021.png", "A 40493-2021")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/knärot/A 40493-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/knärot/A 40493-2021.png", "A 40493-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomål/A 40493-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomål/A 40493-2021.docx", "A 40493-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomålsmail/A 40493-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomålsmail/A 40493-2021.docx", "A 40493-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsyn/A 40493-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsyn/A 40493-2021.docx", "A 40493-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsynsmail/A 40493-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsynsmail/A 40493-2021.docx", "A 40493-2021")</f>
         <v/>
       </c>
     </row>
@@ -835,7 +835,7 @@
         <v>43363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -886,27 +886,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/artfynd/A 45681-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/artfynd/A 45681-2018.xlsx", "A 45681-2018")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/kartor/A 45681-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/kartor/A 45681-2018.png", "A 45681-2018")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomål/A 45681-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomål/A 45681-2018.docx", "A 45681-2018")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomålsmail/A 45681-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomålsmail/A 45681-2018.docx", "A 45681-2018")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsyn/A 45681-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsyn/A 45681-2018.docx", "A 45681-2018")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsynsmail/A 45681-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsynsmail/A 45681-2018.docx", "A 45681-2018")</f>
         <v/>
       </c>
     </row>
@@ -920,7 +920,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -971,27 +971,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/artfynd/A 25868-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/artfynd/A 25868-2021.xlsx", "A 25868-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/kartor/A 25868-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/kartor/A 25868-2021.png", "A 25868-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomål/A 25868-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomål/A 25868-2021.docx", "A 25868-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomålsmail/A 25868-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomålsmail/A 25868-2021.docx", "A 25868-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsyn/A 25868-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsyn/A 25868-2021.docx", "A 25868-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsynsmail/A 25868-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsynsmail/A 25868-2021.docx", "A 25868-2021")</f>
         <v/>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
         <v>44664</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1061,27 +1061,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/artfynd/A 15823-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/artfynd/A 15823-2022.xlsx", "A 15823-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/kartor/A 15823-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/kartor/A 15823-2022.png", "A 15823-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomål/A 15823-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomål/A 15823-2022.docx", "A 15823-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomålsmail/A 15823-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomålsmail/A 15823-2022.docx", "A 15823-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsyn/A 15823-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsyn/A 15823-2022.docx", "A 15823-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsynsmail/A 15823-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsynsmail/A 15823-2022.docx", "A 15823-2022")</f>
         <v/>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
         <v>44974</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1146,27 +1146,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/artfynd/A 8255-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/artfynd/A 8255-2023.xlsx", "A 8255-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/kartor/A 8255-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/kartor/A 8255-2023.png", "A 8255-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomål/A 8255-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomål/A 8255-2023.docx", "A 8255-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomålsmail/A 8255-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomålsmail/A 8255-2023.docx", "A 8255-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsyn/A 8255-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsyn/A 8255-2023.docx", "A 8255-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsynsmail/A 8255-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsynsmail/A 8255-2023.docx", "A 8255-2023")</f>
         <v/>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1236,27 +1236,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/artfynd/A 16169-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/artfynd/A 16169-2023.xlsx", "A 16169-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/kartor/A 16169-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/kartor/A 16169-2023.png", "A 16169-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomål/A 16169-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomål/A 16169-2023.docx", "A 16169-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomålsmail/A 16169-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/klagomålsmail/A 16169-2023.docx", "A 16169-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsyn/A 16169-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsyn/A 16169-2023.docx", "A 16169-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsynsmail/A 16169-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ODESHOG/tillsynsmail/A 16169-2023.docx", "A 16169-2023")</f>
         <v/>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43378</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>43381</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43529</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43560</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43561</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43561</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43591</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43601</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43601</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43621</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43621</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43630</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43636</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43689</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>43699</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43699</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43700</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43700</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>43707</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43711</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43728</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43728</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43742</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43762</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43783</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43783</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43791</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43797</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43822</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43826</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43843</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43854</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43858</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43859</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43868</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43951</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43958</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43958</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43971</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43984</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>44020</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44062</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44076</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44076</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44077</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44084</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44084</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44106</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44106</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44112</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44112</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44117</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44117</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44117</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44127</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44132</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44145</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44165</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44209</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44231</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44242</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44242</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44251</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44265</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44307</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44358</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44358</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44385</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44417</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44466</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44502</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44504</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44511</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44512</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44517</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44538</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44538</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>44564</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44572</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44582</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44613</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44617</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44622</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44664</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44698</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44698</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44743</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44750</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44791</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44792</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44796</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44796</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44798</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44812</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44812</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44820</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44858</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44865</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44931</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44936</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44974</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44974</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44979</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44992</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44992</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44994</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44994</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45000</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45027</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45048</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45048</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45065</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45069</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45070</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45084</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45097</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45145</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45149</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45153</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45161</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45163</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45163</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45163</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45166</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45183</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
       </c>
       <c r="R216" s="2" t="inlineStr"/>
     </row>
-    <row r="217">
+    <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
           <t>A 43265-2023</t>
@@ -13299,7 +13299,7 @@
         <v>45183</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13345,6 +13345,63 @@
         <v>0</v>
       </c>
       <c r="R217" s="2" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>A 43521-2023</t>
+        </is>
+      </c>
+      <c r="B218" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C218" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>ÖDESHÖG</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0</v>
+      </c>
+      <c r="O218" t="n">
+        <v>0</v>
+      </c>
+      <c r="P218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R218" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÖDESHÖG.xlsx
+++ b/Översikt ÖDESHÖG.xlsx
@@ -572,7 +572,7 @@
         <v>43570</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44420</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44664</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44974</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43378</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>43381</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43529</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43560</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43561</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43561</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43591</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43601</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43601</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43621</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43621</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43630</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43636</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43689</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>43699</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43699</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43700</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43700</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>43707</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43711</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43728</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43728</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43742</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43762</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43783</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43783</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43791</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43797</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43822</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43826</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43843</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43854</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43858</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43859</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43868</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43951</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43958</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43958</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43971</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43984</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>44020</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44062</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44076</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44076</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44077</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44084</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44084</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44106</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44106</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44112</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44112</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44117</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44117</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44117</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44127</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44132</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44145</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44165</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44209</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44231</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44242</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44242</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44251</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44265</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44307</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44358</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44358</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44385</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44417</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44466</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44502</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44504</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44511</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44512</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44517</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44538</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44538</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>44564</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44572</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44582</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44613</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44617</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44622</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44664</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44698</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44698</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44743</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44750</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44791</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44792</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44796</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44796</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44798</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44812</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44812</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44820</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44858</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44865</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44931</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44936</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44974</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44974</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44979</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44992</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44992</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44994</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44994</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45000</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45027</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45048</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45048</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45065</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45069</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45070</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45084</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45097</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45145</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45149</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45153</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45161</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45163</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45163</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45163</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45166</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45183</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45183</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45184</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>

--- a/Översikt ÖDESHÖG.xlsx
+++ b/Översikt ÖDESHÖG.xlsx
@@ -572,7 +572,7 @@
         <v>43570</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44420</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44664</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44974</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43378</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>43381</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43529</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43560</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43561</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43561</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43591</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43601</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43601</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43621</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43621</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43630</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43636</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43689</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>43699</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43699</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43700</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43700</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>43707</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43711</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43728</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43728</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43742</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43762</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43783</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43783</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43791</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43797</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43822</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43826</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43843</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43854</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43858</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43859</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43868</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43951</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43958</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43958</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43971</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43984</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>44020</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44062</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44076</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44076</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44077</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44084</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44084</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44106</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44106</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44112</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44112</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44117</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44117</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44117</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44127</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44132</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44145</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44165</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44209</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44231</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44242</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44242</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44251</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44265</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44307</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44358</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44358</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44385</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44417</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44466</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44502</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44504</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44511</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44512</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44517</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44538</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44538</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>44564</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44572</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44582</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44613</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44617</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44622</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44664</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44698</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44698</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44743</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44750</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44791</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44792</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44796</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44796</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44798</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44812</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44812</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44820</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44858</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44865</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44931</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44936</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44974</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44974</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44979</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44992</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44992</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44994</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44994</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45000</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45027</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45048</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45048</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45065</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45069</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45070</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45084</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45097</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45145</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45149</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45153</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45161</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45163</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45163</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45163</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45166</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45183</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45183</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45184</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>

--- a/Översikt ÖDESHÖG.xlsx
+++ b/Översikt ÖDESHÖG.xlsx
@@ -572,7 +572,7 @@
         <v>43570</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44420</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44664</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44974</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43378</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>43381</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43529</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43560</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43561</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43561</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43591</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43601</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43601</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43621</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43621</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43630</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43636</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43689</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>43699</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43699</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43700</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43700</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>43707</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43711</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43728</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43728</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43742</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43762</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43783</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43783</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43791</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43797</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43822</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43826</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43843</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43854</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43858</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43859</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43868</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43951</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43958</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43958</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43971</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43984</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>44020</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44062</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44076</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44076</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44077</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44084</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44084</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44106</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44106</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44112</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44112</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44117</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44117</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44117</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44127</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44132</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44145</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44165</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44209</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44231</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44242</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44242</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44251</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44265</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44307</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44358</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44358</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44385</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44417</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44466</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44502</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44504</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44511</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44512</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44517</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44538</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44538</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>44564</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44572</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44582</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44613</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44617</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44622</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44664</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44698</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44698</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44743</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44750</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44791</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44792</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44796</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44796</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44798</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44812</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44812</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44820</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44858</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44865</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44931</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44936</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44974</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44974</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44979</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44992</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44992</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44994</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44994</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45000</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45027</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45048</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45048</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45065</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45069</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45070</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45084</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45097</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45145</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45149</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45153</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45161</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45163</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45163</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45163</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45166</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45183</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45183</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45184</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>

--- a/Översikt ÖDESHÖG.xlsx
+++ b/Översikt ÖDESHÖG.xlsx
@@ -572,7 +572,7 @@
         <v>43570</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44420</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44664</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44974</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43378</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>43381</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43529</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43560</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43561</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43561</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43591</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43601</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43601</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43621</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43621</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43630</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43636</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43689</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>43699</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43699</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43700</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43700</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>43707</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43711</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43728</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43728</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43742</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43762</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43783</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43783</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43791</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43797</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43822</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43826</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43843</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43854</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43858</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43859</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43868</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43951</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43958</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43958</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43971</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43984</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>44020</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44062</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44076</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44076</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44077</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44084</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44084</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44106</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44106</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44112</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44112</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44117</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44117</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44117</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44127</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44132</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44145</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44165</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44209</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44231</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44242</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44242</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44251</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44265</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44307</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44358</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44358</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44385</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44417</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44466</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44502</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44504</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44511</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44512</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44517</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44538</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44538</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>44564</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44572</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44582</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44613</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44617</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44622</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44664</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44698</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44698</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44743</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44750</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44791</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44792</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44796</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44796</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44798</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44812</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44812</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44820</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44858</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44865</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44931</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44936</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44974</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44974</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44979</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44992</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44992</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44994</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44994</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45000</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45027</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45048</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45048</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45065</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45069</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45070</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45084</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45097</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45145</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45149</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45153</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45161</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45163</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45163</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45163</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45166</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45183</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45183</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45184</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>

--- a/Översikt ÖDESHÖG.xlsx
+++ b/Översikt ÖDESHÖG.xlsx
@@ -572,7 +572,7 @@
         <v>43570</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44420</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44664</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44974</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43378</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>43381</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43529</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43560</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43561</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43561</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43591</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43601</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43601</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43621</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43621</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43630</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43636</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43689</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>43699</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43699</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43700</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43700</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>43707</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43711</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43728</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43728</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43742</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43762</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43783</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43783</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43791</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43797</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43822</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43826</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43843</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43854</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43858</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43859</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43868</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43951</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43958</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43958</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43971</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43984</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>44020</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44062</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44076</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44076</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44077</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44084</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44084</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44106</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44106</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44112</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44112</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44117</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44117</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44117</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44127</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44132</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44145</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44165</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44209</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44231</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44242</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44242</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44251</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44265</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44307</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44358</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44358</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44385</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44417</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44466</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44502</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44504</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44511</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44512</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44517</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44538</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44538</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>44564</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44572</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44582</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44613</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44617</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44622</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44664</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44698</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44698</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44743</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44750</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44791</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44792</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44796</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44796</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44798</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44812</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44812</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44820</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44858</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44865</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44931</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44936</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44974</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44974</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44979</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44992</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44992</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44994</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44994</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45000</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45027</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45048</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45048</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45065</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45069</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45070</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45084</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45097</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45145</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45149</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45153</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45161</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45163</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45163</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45163</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45166</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45183</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45183</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45184</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>

--- a/Översikt ÖDESHÖG.xlsx
+++ b/Översikt ÖDESHÖG.xlsx
@@ -572,7 +572,7 @@
         <v>43570</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44420</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44664</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44974</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43378</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>43381</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43529</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43560</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43561</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43561</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43591</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43601</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43601</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43621</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43621</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43630</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43636</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43689</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>43699</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43699</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43700</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43700</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>43707</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43711</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43728</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43728</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43742</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43762</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43783</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43783</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43791</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43797</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43822</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43826</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43843</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43854</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43858</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43859</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43868</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43951</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43958</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43958</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43971</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43984</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>44020</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44062</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44076</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44076</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44077</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44084</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44084</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44106</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44106</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44112</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44112</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44117</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44117</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44117</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44127</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44132</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44145</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44165</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44209</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44231</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44242</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44242</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44251</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44265</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44307</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44358</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44358</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44385</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44417</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44466</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44502</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44504</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44511</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44512</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44517</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44538</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44538</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>44564</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44572</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44582</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44613</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44617</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44622</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44664</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44698</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44698</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44743</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44750</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44791</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44792</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44796</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44796</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44798</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44812</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44812</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44820</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44858</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44865</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44931</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44936</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44974</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44974</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44979</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44992</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44992</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44994</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44994</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45000</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45027</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45048</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45048</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45065</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45069</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45070</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45084</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45097</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45145</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45149</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45153</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45161</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45163</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45163</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45163</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45166</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45183</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45183</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45184</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>

--- a/Översikt ÖDESHÖG.xlsx
+++ b/Översikt ÖDESHÖG.xlsx
@@ -572,7 +572,7 @@
         <v>43570</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44420</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44664</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44974</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43378</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>43381</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43529</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43560</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43561</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43561</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43591</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43601</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43601</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43621</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43621</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43630</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43636</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43689</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>43699</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43699</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43700</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43700</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>43707</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43711</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43728</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43728</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43742</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43762</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43783</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43783</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43791</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43797</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43822</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43826</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43843</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43854</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43858</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43859</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43868</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43951</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43958</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43958</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43971</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43984</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>44020</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44062</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44076</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44076</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44077</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44084</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44084</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44106</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44106</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44112</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44112</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44117</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44117</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44117</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44127</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44132</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44145</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44165</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44209</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44231</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44242</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44242</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44251</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44265</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44307</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44358</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44358</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44385</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44417</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44466</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44502</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44504</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44511</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44512</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44517</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44538</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44538</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>44564</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44572</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44582</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44613</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44617</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44622</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44664</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44698</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44698</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44743</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44750</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44791</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44792</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44796</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44796</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44798</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44812</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44812</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44820</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44858</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44865</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44931</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44936</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44974</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44974</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44979</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44992</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44992</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44994</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44994</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45000</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45027</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45048</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45048</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45065</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45069</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45070</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45084</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45097</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45145</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45149</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45153</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45161</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45163</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45163</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45163</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45166</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45183</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45183</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45184</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>

--- a/Översikt ÖDESHÖG.xlsx
+++ b/Översikt ÖDESHÖG.xlsx
@@ -572,7 +572,7 @@
         <v>43570</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44420</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44664</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44974</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43378</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>43381</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43529</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43560</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43561</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43561</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43591</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43601</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43601</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43621</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43621</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43630</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43636</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43689</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>43699</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43699</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43700</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43700</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>43707</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43711</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43728</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43728</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43742</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43762</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43783</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43783</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43791</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43797</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43822</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43826</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43843</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43854</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43858</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43859</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43868</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43951</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43958</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43958</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43971</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43984</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>44020</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44062</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44076</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44076</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44077</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44084</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44084</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44106</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44106</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44112</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44112</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44117</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44117</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44117</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44127</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44132</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44145</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44165</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44209</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44231</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44242</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44242</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44251</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44265</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44307</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44358</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44358</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44385</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44417</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44466</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44502</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44504</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44511</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44512</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44517</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44538</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44538</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>44564</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44572</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44582</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44613</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44617</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44622</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44664</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44698</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44698</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44743</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44750</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44791</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44792</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44796</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44796</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44798</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44812</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44812</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44820</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44858</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44865</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44931</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44936</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44974</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44974</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44979</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44992</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44992</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44994</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44994</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45000</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45027</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45048</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45048</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45065</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45069</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45070</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45084</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45097</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45145</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45149</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45153</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45161</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45163</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45163</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45163</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45166</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45183</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45183</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45184</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>

--- a/Översikt ÖDESHÖG.xlsx
+++ b/Översikt ÖDESHÖG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y218"/>
+  <dimension ref="A1:Y219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43570</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44022</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44420</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44344</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>44664</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>44974</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45027</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>43378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43378</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>43378</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>43381</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43403</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43411</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43416</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43416</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>43468</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43469</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43472</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>43473</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>43481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>43482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>43501</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>43507</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>43524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>43525</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43529</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43539</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43560</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43561</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43561</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43591</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43601</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>43601</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>43621</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>43621</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         <v>43630</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43635</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>43635</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43636</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43689</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>43696</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>43699</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>43699</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>43700</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43700</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>43707</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43711</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>43711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43728</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>43728</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43732</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43742</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43747</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43762</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43780</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43783</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43783</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43791</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43797</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43822</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43826</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43843</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43854</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43858</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43859</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43867</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43867</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43868</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43882</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43951</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>43958</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43958</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43971</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43984</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43985</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>44020</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44062</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>44074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>44074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>44074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         <v>44074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44076</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44076</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44077</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44084</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>44084</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44106</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44106</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>44110</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>44112</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         <v>44112</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>44117</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>44117</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44117</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44124</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44127</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44132</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44145</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44165</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         <v>44182</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         <v>44182</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44182</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44182</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44209</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44231</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44242</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44242</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>44251</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>44252</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44265</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44307</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44355</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44358</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44358</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44385</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44417</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>44466</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44487</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44502</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44504</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44511</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44512</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44517</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44538</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44538</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>44564</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44572</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44582</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44613</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44617</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44622</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44664</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44698</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44698</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44743</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44750</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44791</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44792</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44796</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44796</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44798</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44798</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44812</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44812</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44820</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44858</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44865</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44931</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44936</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44974</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44974</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44979</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44992</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44992</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44992</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44994</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44994</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45000</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45027</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45027</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45048</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45048</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45065</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45069</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45070</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45084</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45097</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45145</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45149</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45153</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45161</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45163</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45163</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45163</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45166</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45183</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45183</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
       </c>
       <c r="R217" s="2" t="inlineStr"/>
     </row>
-    <row r="218">
+    <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
           <t>A 43521-2023</t>
@@ -13356,7 +13356,7 @@
         <v>45184</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13402,6 +13402,63 @@
         <v>0</v>
       </c>
       <c r="R218" s="2" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>A 48107-2023</t>
+        </is>
+      </c>
+      <c r="B219" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C219" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>ÖDESHÖG</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0</v>
+      </c>
+      <c r="O219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R219" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
